--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1706922.873415333</v>
+        <v>-1709510.384620908</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673424</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>300.182981551169</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.0904450475561</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>296.3356618821741</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>113.0324549812898</v>
       </c>
       <c r="T2" t="n">
-        <v>204.6565392873045</v>
+        <v>110.5597167088378</v>
       </c>
       <c r="U2" t="n">
         <v>251.0086695104302</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>90.46872094984357</v>
       </c>
       <c r="I3" t="n">
-        <v>11.79954938173968</v>
+        <v>11.79954938173972</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,7 +835,7 @@
         <v>145.4278941339733</v>
       </c>
       <c r="I4" t="n">
-        <v>98.62837588899006</v>
+        <v>98.62837588899009</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>92.33507763978299</v>
+        <v>92.33507763978305</v>
       </c>
       <c r="S4" t="n">
-        <v>191.0879511638283</v>
+        <v>40.14047688856903</v>
       </c>
       <c r="T4" t="n">
         <v>219.8723165903172</v>
       </c>
       <c r="U4" t="n">
-        <v>144.1019613895232</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>174.9123239800291</v>
       </c>
       <c r="C5" t="n">
-        <v>269.7104774866294</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>61.69425125124552</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>86.10350143227026</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>336.5720236022909</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>162.9447844884594</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>129.2639209491384</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>77.83107808278533</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,16 +1585,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323829</v>
+        <v>130.5513683573768</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>93.02868377804597</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>126.9927435506638</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>205.2977868514348</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>43.73846614325497</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>212.8988206105698</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892428188</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.799772605715547</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>13.03790159951737</v>
+        <v>27.02919805176087</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189025</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>92.41552299048857</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652619</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352476</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1824.238566678982</v>
+        <v>806.4516086174672</v>
       </c>
       <c r="C2" t="n">
-        <v>1521.023433799013</v>
+        <v>806.4516086174672</v>
       </c>
       <c r="D2" t="n">
-        <v>1162.757735192263</v>
+        <v>448.1859100107167</v>
       </c>
       <c r="E2" t="n">
-        <v>776.9694825940185</v>
+        <v>62.39765741247265</v>
       </c>
       <c r="F2" t="n">
-        <v>776.9694825940185</v>
+        <v>62.39765741247277</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7266088086083</v>
+        <v>62.39765741247277</v>
       </c>
       <c r="H2" t="n">
-        <v>62.39765741247284</v>
+        <v>62.39765741247277</v>
       </c>
       <c r="I2" t="n">
-        <v>62.39765741247284</v>
+        <v>62.39765741247277</v>
       </c>
       <c r="J2" t="n">
-        <v>237.1001391730319</v>
+        <v>237.1001391730315</v>
       </c>
       <c r="K2" t="n">
-        <v>549.6723906315706</v>
+        <v>549.6723906315692</v>
       </c>
       <c r="L2" t="n">
-        <v>974.3476699529753</v>
+        <v>974.3476699529735</v>
       </c>
       <c r="M2" t="n">
-        <v>1478.550181808272</v>
+        <v>1478.550181808269</v>
       </c>
       <c r="N2" t="n">
-        <v>1995.525025811717</v>
+        <v>1995.525025811714</v>
       </c>
       <c r="O2" t="n">
-        <v>2470.354450076073</v>
+        <v>2470.35445007607</v>
       </c>
       <c r="P2" t="n">
-        <v>2841.109377259761</v>
+        <v>2841.109377259758</v>
       </c>
       <c r="Q2" t="n">
-        <v>3071.358140510241</v>
+        <v>3071.358140510238</v>
       </c>
       <c r="R2" t="n">
-        <v>3119.882870623642</v>
+        <v>3119.882870623638</v>
       </c>
       <c r="S2" t="n">
-        <v>3005.708673672844</v>
+        <v>3005.708673672841</v>
       </c>
       <c r="T2" t="n">
-        <v>2798.984896614961</v>
+        <v>2894.032192148762</v>
       </c>
       <c r="U2" t="n">
-        <v>2545.440785998364</v>
+        <v>2640.488081532165</v>
       </c>
       <c r="V2" t="n">
-        <v>2214.377898654794</v>
+        <v>2309.425194188595</v>
       </c>
       <c r="W2" t="n">
-        <v>2214.377898654794</v>
+        <v>1956.65653891848</v>
       </c>
       <c r="X2" t="n">
-        <v>2214.377898654794</v>
+        <v>1583.190780657401</v>
       </c>
       <c r="Y2" t="n">
-        <v>1824.238566678982</v>
+        <v>1193.051448681589</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1494.450283274072</v>
+        <v>1494.450283274068</v>
       </c>
       <c r="C3" t="n">
-        <v>1319.997253992945</v>
+        <v>1319.997253992941</v>
       </c>
       <c r="D3" t="n">
-        <v>1171.062844331693</v>
+        <v>1171.06284433169</v>
       </c>
       <c r="E3" t="n">
-        <v>1011.825389326238</v>
+        <v>1011.825389326234</v>
       </c>
       <c r="F3" t="n">
-        <v>865.2908313531228</v>
+        <v>865.2908313531192</v>
       </c>
       <c r="G3" t="n">
-        <v>728.8365465046229</v>
+        <v>728.8365465046193</v>
       </c>
       <c r="H3" t="n">
-        <v>637.4540000906395</v>
+        <v>637.4540000906359</v>
       </c>
       <c r="I3" t="n">
-        <v>625.5352633414075</v>
+        <v>625.5352633414038</v>
       </c>
       <c r="J3" t="n">
-        <v>710.7690176891878</v>
+        <v>710.7690176891839</v>
       </c>
       <c r="K3" t="n">
-        <v>934.6019044271213</v>
+        <v>934.6019044271172</v>
       </c>
       <c r="L3" t="n">
-        <v>1281.895384495316</v>
+        <v>1281.895384495311</v>
       </c>
       <c r="M3" t="n">
-        <v>1706.527363131972</v>
+        <v>1706.527363131967</v>
       </c>
       <c r="N3" t="n">
-        <v>2156.806731627</v>
+        <v>2156.806731626995</v>
       </c>
       <c r="O3" t="n">
-        <v>2546.504589386196</v>
+        <v>2546.504589386191</v>
       </c>
       <c r="P3" t="n">
-        <v>2973.649328608495</v>
+        <v>2839.938410364691</v>
       </c>
       <c r="Q3" t="n">
-        <v>3119.882870623642</v>
+        <v>3119.882870623638</v>
       </c>
       <c r="R3" t="n">
-        <v>3119.882870623642</v>
+        <v>3119.882870623638</v>
       </c>
       <c r="S3" t="n">
-        <v>2988.751268658635</v>
+        <v>2988.751268658631</v>
       </c>
       <c r="T3" t="n">
-        <v>2795.740730082334</v>
+        <v>2795.740730082331</v>
       </c>
       <c r="U3" t="n">
-        <v>2567.666884224571</v>
+        <v>2567.666884224567</v>
       </c>
       <c r="V3" t="n">
-        <v>2332.514775992828</v>
+        <v>2332.514775992825</v>
       </c>
       <c r="W3" t="n">
-        <v>2078.277419264627</v>
+        <v>2078.277419264623</v>
       </c>
       <c r="X3" t="n">
-        <v>1870.425919059094</v>
+        <v>1870.42591905909</v>
       </c>
       <c r="Y3" t="n">
-        <v>1662.66562029414</v>
+        <v>1662.665620294136</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>792.5245555088086</v>
+        <v>2361.53488612596</v>
       </c>
       <c r="C4" t="n">
-        <v>623.5883725809017</v>
+        <v>2192.598703198053</v>
       </c>
       <c r="D4" t="n">
-        <v>623.5883725809017</v>
+        <v>2042.482063785718</v>
       </c>
       <c r="E4" t="n">
-        <v>623.5883725809017</v>
+        <v>1894.568970203325</v>
       </c>
       <c r="F4" t="n">
-        <v>476.6984250829914</v>
+        <v>1747.679022705414</v>
       </c>
       <c r="G4" t="n">
-        <v>308.919142284153</v>
+        <v>1579.899739906576</v>
       </c>
       <c r="H4" t="n">
-        <v>162.0222795225638</v>
+        <v>1433.002877144987</v>
       </c>
       <c r="I4" t="n">
-        <v>62.39765741247284</v>
+        <v>1333.378255034896</v>
       </c>
       <c r="J4" t="n">
-        <v>102.2230998038609</v>
+        <v>1373.203697426283</v>
       </c>
       <c r="K4" t="n">
-        <v>297.5053722589869</v>
+        <v>1568.48596988141</v>
       </c>
       <c r="L4" t="n">
-        <v>602.9258822712707</v>
+        <v>1873.906479893693</v>
       </c>
       <c r="M4" t="n">
-        <v>935.3381100583205</v>
+        <v>2206.318707680743</v>
       </c>
       <c r="N4" t="n">
-        <v>1265.280934468309</v>
+        <v>2536.261532090731</v>
       </c>
       <c r="O4" t="n">
-        <v>1554.020240090065</v>
+        <v>2825.000837712487</v>
       </c>
       <c r="P4" t="n">
-        <v>1777.565915077022</v>
+        <v>3048.546512699444</v>
       </c>
       <c r="Q4" t="n">
-        <v>1848.902273001217</v>
+        <v>3119.882870623638</v>
       </c>
       <c r="R4" t="n">
-        <v>1755.634517809517</v>
+        <v>3026.615115431938</v>
       </c>
       <c r="S4" t="n">
-        <v>1562.616385320801</v>
+        <v>2986.069179180859</v>
       </c>
       <c r="T4" t="n">
-        <v>1340.523136239673</v>
+        <v>2763.97593009973</v>
       </c>
       <c r="U4" t="n">
-        <v>1194.965599482578</v>
+        <v>2763.97593009973</v>
       </c>
       <c r="V4" t="n">
-        <v>1194.965599482578</v>
+        <v>2763.97593009973</v>
       </c>
       <c r="W4" t="n">
-        <v>1194.965599482578</v>
+        <v>2763.97593009973</v>
       </c>
       <c r="X4" t="n">
-        <v>1194.965599482578</v>
+        <v>2763.97593009973</v>
       </c>
       <c r="Y4" t="n">
-        <v>974.1730203390483</v>
+        <v>2543.1833509562</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1458.811090838975</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C5" t="n">
-        <v>1186.376265094905</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881545</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139988</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X5" t="n">
-        <v>2235.550262878909</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y5" t="n">
-        <v>1845.410930903097</v>
+        <v>2182.266054653544</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>625.6709106036544</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="C7" t="n">
-        <v>625.6709106036544</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1618.554698888049</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V7" t="n">
-        <v>1363.870210682162</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W7" t="n">
-        <v>1074.453040645202</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X7" t="n">
-        <v>846.4634897471846</v>
+        <v>741.7508393439803</v>
       </c>
       <c r="Y7" t="n">
-        <v>625.6709106036544</v>
+        <v>520.9582602004501</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1274.539111149741</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C8" t="n">
-        <v>934.5673701373257</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>943.758858380904</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4841,13 +4841,13 @@
         <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189674</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213863</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>924.1535645674204</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>755.2173816395135</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>755.2173816395135</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1848.677297499821</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1848.677297499821</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1626.910682069347</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1626.910682069347</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1372.22619386346</v>
       </c>
       <c r="W10" t="n">
-        <v>1326.59460854119</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="X10" t="n">
-        <v>1326.59460854119</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1105.80202939766</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.6673633290469</v>
+        <v>636.6680198981026</v>
       </c>
       <c r="C13" t="n">
-        <v>699.73118040114</v>
+        <v>467.7318369701957</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1556.51578480685</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X13" t="n">
-        <v>1050.315828159287</v>
+        <v>1039.109063871872</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.315828159287</v>
+        <v>818.3164847283423</v>
       </c>
     </row>
     <row r="14">
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819252</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,28 +5288,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123002</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890283</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.11872044489</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138416</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C16" t="n">
-        <v>916.2946447138416</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>766.1780053015059</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>618.2649117191128</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>471.3749642212024</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>304.1788649360823</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2172.545877962526</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1883.470651306724</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1628.786163100837</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1339.368993063877</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138418</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138416</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969299</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>719.5738700011942</v>
+        <v>874.868625753638</v>
       </c>
       <c r="C19" t="n">
-        <v>550.6376870732872</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>550.6376870732872</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2402.78281474869</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2402.78281474869</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2183.181349771631</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1894.106123115829</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1639.421634909942</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W19" t="n">
-        <v>1350.004464872982</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>1122.014913974964</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>901.222334831434</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890283</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.11872044489</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400713</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121644</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5932,13 +5932,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
         <v>1688.385853854706</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958742</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>633.9926444679674</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D25" t="n">
-        <v>483.8760050556316</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E25" t="n">
-        <v>335.9629114732385</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="F25" t="n">
-        <v>189.0729639753281</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797742</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.577292226114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>640.1060525954246</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>640.1060525954246</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>489.9894131830888</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830888</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T28" t="n">
-        <v>2103.713532365861</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>1814.638305710059</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1559.953817504172</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>1270.536647467211</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>1042.547096569194</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>821.7545174256643</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384024</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6625,7 +6625,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,10 +6643,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.584050252739</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>95.584050252739</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>95.584050252739</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438179</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,22 +6838,22 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6862,7 +6862,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6923,40 +6923,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150021</v>
@@ -7081,25 +7081,25 @@
         <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.79828551875</v>
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444888</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384026</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,7 +7336,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,19 +7351,19 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745236</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
         <v>268.555303634548</v>
@@ -7567,16 +7567,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192764</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111731</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745236</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,37 +7819,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>135.0615335795939</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>135.0615335795963</v>
       </c>
       <c r="R3" t="n">
-        <v>5.7477442701136</v>
+        <v>5.747744270113685</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>65.0899102198386</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.0904450475561</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>296.3356618821742</v>
       </c>
       <c r="I2" t="n">
-        <v>48.08148421406801</v>
+        <v>48.0814842140681</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>94.0968225784667</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,10 +22708,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22753,13 +22753,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>150.9474742752593</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>142.1140049094617</v>
+        <v>286.2159662989849</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>132.6809716109912</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>13.30196929556003</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>12.10766347585347</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>22.63678056686647</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>73.62417772602123</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864937</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405086</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>152.4862366927515</v>
+        <v>138.494940240508</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>124.9899273367997</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1073300.390908985</v>
+        <v>1073300.390908984</v>
       </c>
     </row>
     <row r="3">
@@ -26314,7 +26314,7 @@
         <v>99467.00901045144</v>
       </c>
       <c r="C2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="D2" t="n">
         <v>123156.2654796425</v>
@@ -26366,13 +26366,13 @@
         <v>1271067.297476341</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.77288023745</v>
+        <v>54832.77288023804</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.413029158039134e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>204074.658450363</v>
+        <v>204074.6584503628</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.34410594275</v>
+        <v>32664.34410594286</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551183</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12912.91945249297</v>
+        <v>12912.91945249301</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813243</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678115</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678119</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678122</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678122</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>18547.9475498747</v>
+        <v>18547.94754987467</v>
       </c>
       <c r="L4" t="n">
-        <v>18547.94754987473</v>
+        <v>18547.94754987467</v>
       </c>
       <c r="M4" t="n">
-        <v>18547.94754987469</v>
+        <v>18547.94754987468</v>
       </c>
       <c r="N4" t="n">
-        <v>18547.94754987474</v>
+        <v>18547.94754987466</v>
       </c>
       <c r="O4" t="n">
-        <v>18547.94754987469</v>
+        <v>18547.94754987467</v>
       </c>
       <c r="P4" t="n">
-        <v>18547.94754987468</v>
+        <v>18547.94754987467</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>103892.0286120432</v>
+        <v>103892.0286120431</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1288405.236530426</v>
+        <v>-1288800.057471578</v>
       </c>
       <c r="C6" t="n">
-        <v>-129354.5710201206</v>
+        <v>-129354.5710201213</v>
       </c>
       <c r="D6" t="n">
-        <v>-74521.79813988326</v>
+        <v>-74521.79813988329</v>
       </c>
       <c r="E6" t="n">
-        <v>-316020.0899645429</v>
+        <v>-316054.8278899782</v>
       </c>
       <c r="F6" t="n">
-        <v>9392.371842812601</v>
+        <v>9357.633917376865</v>
       </c>
       <c r="G6" t="n">
-        <v>9392.371842812587</v>
+        <v>9357.633917376836</v>
       </c>
       <c r="H6" t="n">
-        <v>9392.371842812558</v>
+        <v>9357.633917376836</v>
       </c>
       <c r="I6" t="n">
-        <v>9392.371842812485</v>
+        <v>9357.633917376865</v>
       </c>
       <c r="J6" t="n">
-        <v>-194682.2866075504</v>
+        <v>-194717.024532986</v>
       </c>
       <c r="K6" t="n">
-        <v>-31220.14203009038</v>
+        <v>-31220.14203009044</v>
       </c>
       <c r="L6" t="n">
-        <v>1444.202075852358</v>
+        <v>1444.20207585243</v>
       </c>
       <c r="M6" t="n">
-        <v>-83610.82585965947</v>
+        <v>-83610.82585965944</v>
       </c>
       <c r="N6" t="n">
-        <v>1444.202075852343</v>
+        <v>1444.20207585246</v>
       </c>
       <c r="O6" t="n">
-        <v>1444.202075852372</v>
+        <v>1444.20207585243</v>
       </c>
       <c r="P6" t="n">
-        <v>-17983.51591777941</v>
+        <v>-17983.51591777935</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203975</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203977</v>
-      </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>1047.807751310266</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559104</v>
+        <v>779.9707176559095</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26926,19 +26926,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.266286447548917e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26960,13 +26960,13 @@
         <v>1047.807751310266</v>
       </c>
       <c r="C3" t="n">
-        <v>41.96894928303209</v>
+        <v>41.96894928303254</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559104</v>
+        <v>779.9707176559095</v>
       </c>
       <c r="C4" t="n">
-        <v>51.43073774638242</v>
+        <v>51.43073774638299</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559104</v>
+        <v>779.9707176559095</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638242</v>
+        <v>51.43073774638299</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.266286447548917e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559104</v>
+        <v>779.9707176559095</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638242</v>
+        <v>51.43073774638299</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>207.8215176834515</v>
       </c>
       <c r="C5" t="n">
-        <v>95.56241428437812</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>118.1377289306918</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>200.1083367733426</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>28.70086816871662</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>243.931261253252</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>17.17004169743078</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>11.101074587262</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,13 +28065,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-9.285372470912988e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-9.812458829362508e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.212292467578957</v>
+        <v>4.212292467578955</v>
       </c>
       <c r="H2" t="n">
-        <v>43.13914023359301</v>
+        <v>43.13914023359298</v>
       </c>
       <c r="I2" t="n">
-        <v>162.3944053563379</v>
+        <v>162.3944053563378</v>
       </c>
       <c r="J2" t="n">
-        <v>357.5130578201799</v>
+        <v>357.5130578201797</v>
       </c>
       <c r="K2" t="n">
-        <v>535.8193979727972</v>
+        <v>535.8193979727969</v>
       </c>
       <c r="L2" t="n">
-        <v>664.7313435774669</v>
+        <v>664.7313435774664</v>
       </c>
       <c r="M2" t="n">
-        <v>739.6416997477742</v>
+        <v>739.6416997477736</v>
       </c>
       <c r="N2" t="n">
-        <v>751.6098757212829</v>
+        <v>751.6098757212824</v>
       </c>
       <c r="O2" t="n">
-        <v>709.7238924967946</v>
+        <v>709.7238924967942</v>
       </c>
       <c r="P2" t="n">
-        <v>605.732922203439</v>
+        <v>605.7329222034386</v>
       </c>
       <c r="Q2" t="n">
-        <v>454.8801982082675</v>
+        <v>454.8801982082671</v>
       </c>
       <c r="R2" t="n">
-        <v>264.6004167165569</v>
+        <v>264.6004167165568</v>
       </c>
       <c r="S2" t="n">
-        <v>95.98761460495558</v>
+        <v>95.98761460495552</v>
       </c>
       <c r="T2" t="n">
-        <v>18.43931027682689</v>
+        <v>18.43931027682688</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3369833974063165</v>
+        <v>0.3369833974063163</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.253775163195668</v>
+        <v>2.253775163195666</v>
       </c>
       <c r="H3" t="n">
-        <v>21.7667232866529</v>
+        <v>21.76672328665288</v>
       </c>
       <c r="I3" t="n">
-        <v>77.5970834696754</v>
+        <v>77.59708346967535</v>
       </c>
       <c r="J3" t="n">
-        <v>212.9323280280609</v>
+        <v>212.9323280280607</v>
       </c>
       <c r="K3" t="n">
-        <v>363.9352639621706</v>
+        <v>363.9352639621704</v>
       </c>
       <c r="L3" t="n">
-        <v>489.3558747982523</v>
+        <v>489.355874798252</v>
       </c>
       <c r="M3" t="n">
-        <v>571.0552244640951</v>
+        <v>571.0552244640947</v>
       </c>
       <c r="N3" t="n">
-        <v>586.1693570278065</v>
+        <v>586.1693570278062</v>
       </c>
       <c r="O3" t="n">
-        <v>536.2304442012078</v>
+        <v>536.2304442012074</v>
       </c>
       <c r="P3" t="n">
-        <v>430.3722063825131</v>
+        <v>430.3722063825128</v>
       </c>
       <c r="Q3" t="n">
-        <v>287.6924225861698</v>
+        <v>287.6924225861696</v>
       </c>
       <c r="R3" t="n">
-        <v>139.9317596938504</v>
+        <v>139.9317596938503</v>
       </c>
       <c r="S3" t="n">
-        <v>41.8628851584809</v>
+        <v>41.86288515848087</v>
       </c>
       <c r="T3" t="n">
-        <v>9.084295504284288</v>
+        <v>9.084295504284283</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1482746817891887</v>
+        <v>0.1482746817891886</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.889489387608677</v>
+        <v>1.889489387608676</v>
       </c>
       <c r="H4" t="n">
-        <v>16.79927837346625</v>
+        <v>16.79927837346624</v>
       </c>
       <c r="I4" t="n">
-        <v>56.82209903826823</v>
+        <v>56.82209903826819</v>
       </c>
       <c r="J4" t="n">
-        <v>133.5868997039335</v>
+        <v>133.5868997039334</v>
       </c>
       <c r="K4" t="n">
-        <v>219.5243124876262</v>
+        <v>219.5243124876261</v>
       </c>
       <c r="L4" t="n">
-        <v>280.9155404086574</v>
+        <v>280.9155404086572</v>
       </c>
       <c r="M4" t="n">
-        <v>296.1860500957856</v>
+        <v>296.1860500957854</v>
       </c>
       <c r="N4" t="n">
-        <v>289.1434078328808</v>
+        <v>289.1434078328805</v>
       </c>
       <c r="O4" t="n">
-        <v>267.0707363503611</v>
+        <v>267.0707363503609</v>
       </c>
       <c r="P4" t="n">
-        <v>228.5251528431439</v>
+        <v>228.5251528431438</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.2189704478502</v>
+        <v>158.2189704478501</v>
       </c>
       <c r="R4" t="n">
-        <v>84.95831373738649</v>
+        <v>84.95831373738643</v>
       </c>
       <c r="S4" t="n">
-        <v>32.92864687314393</v>
+        <v>32.92864687314391</v>
       </c>
       <c r="T4" t="n">
-        <v>8.073272837964344</v>
+        <v>8.073272837964339</v>
       </c>
       <c r="U4" t="n">
-        <v>0.103063057505928</v>
+        <v>0.1030630575059279</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511221</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>188.4731159523446</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727245</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162543</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>225.4828684302367</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32950,7 +32950,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
         <v>965.6463440175675</v>
@@ -33020,28 +33020,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>732.482598761492</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236526</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,25 +33731,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192562</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,10 +33761,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,10 +33998,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.410447117911</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.410447117911</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>176.4671532934936</v>
+        <v>176.4671532934934</v>
       </c>
       <c r="K2" t="n">
-        <v>315.7295469278167</v>
+        <v>315.7295469278163</v>
       </c>
       <c r="L2" t="n">
-        <v>428.9649286074796</v>
+        <v>428.9649286074792</v>
       </c>
       <c r="M2" t="n">
-        <v>509.2954665205015</v>
+        <v>509.2954665205009</v>
       </c>
       <c r="N2" t="n">
-        <v>522.1968121246921</v>
+        <v>522.1968121246914</v>
       </c>
       <c r="O2" t="n">
-        <v>479.6256810751079</v>
+        <v>479.6256810751074</v>
       </c>
       <c r="P2" t="n">
-        <v>374.4999264481694</v>
+        <v>374.4999264481691</v>
       </c>
       <c r="Q2" t="n">
-        <v>232.574508333818</v>
+        <v>232.5745083338176</v>
       </c>
       <c r="R2" t="n">
-        <v>49.01487890242481</v>
+        <v>49.01487890242464</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86.09470136139419</v>
+        <v>86.09470136139404</v>
       </c>
       <c r="K3" t="n">
-        <v>226.0938249878116</v>
+        <v>226.0938249878114</v>
       </c>
       <c r="L3" t="n">
-        <v>350.8014950183781</v>
+        <v>350.8014950183778</v>
       </c>
       <c r="M3" t="n">
-        <v>428.9211905420768</v>
+        <v>428.9211905420764</v>
       </c>
       <c r="N3" t="n">
-        <v>454.8276449444733</v>
+        <v>454.8276449444729</v>
       </c>
       <c r="O3" t="n">
-        <v>393.6341997567633</v>
+        <v>393.634199756763</v>
       </c>
       <c r="P3" t="n">
-        <v>431.4593325477767</v>
+        <v>296.3977989681825</v>
       </c>
       <c r="Q3" t="n">
-        <v>147.7106485001483</v>
+        <v>282.7721820797444</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>40.22771958726068</v>
+        <v>40.22771958726059</v>
       </c>
       <c r="K4" t="n">
-        <v>197.2548206617434</v>
+        <v>197.2548206617433</v>
       </c>
       <c r="L4" t="n">
-        <v>308.5055656689735</v>
+        <v>308.5055656689733</v>
       </c>
       <c r="M4" t="n">
-        <v>335.7699270576261</v>
+        <v>335.769927057626</v>
       </c>
       <c r="N4" t="n">
-        <v>333.2755802121094</v>
+        <v>333.2755802121092</v>
       </c>
       <c r="O4" t="n">
-        <v>291.6558642644007</v>
+        <v>291.6558642644006</v>
       </c>
       <c r="P4" t="n">
-        <v>225.8037121080374</v>
+        <v>225.8037121080372</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.05692719615585</v>
+        <v>72.05692719615574</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>197.8432633066776</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>45.87687150790018</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507062</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629534</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146267</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>82.88662398579233</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629534</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>590.3485648394736</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.587454168383</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359229</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394708</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394708</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,16 +38175,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980851</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
